--- a/PROYECTO MR/HU-GP.GP.002 Obtener Orden de Pago/N. IPS - MR 2.0 - Obtener Orden de Pago.xlsx
+++ b/PROYECTO MR/HU-GP.GP.002 Obtener Orden de Pago/N. IPS - MR 2.0 - Obtener Orden de Pago.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\IPS\Finalizados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\HU-GP.GP.002 Obtener Orden de Pago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1000E6-5380-4BFB-8655-7E753424DE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC9DF92-3541-42E4-A08B-2E1F453B8DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo" sheetId="33" r:id="rId1"/>
@@ -502,11 +502,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,128 +825,128 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -6540,7 +6547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD41BC88-8804-4EAC-86DA-1699D63A4B27}">
   <dimension ref="B3:H974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -7604,8 +7611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7621,16 +7628,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -7639,10 +7646,10 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
@@ -7654,25 +7661,25 @@
       <c r="D9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="27">
-        <v>45667</v>
+        <v>45698</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="33" t="s">
         <v>46</v>
       </c>
@@ -7680,22 +7687,22 @@
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7704,59 +7711,59 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="19">
         <f>COUNTIF($G:$G,"CONFORME")</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="19">
         <f>COUNTIF($G:$G,"NO CONFORME")</f>
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="19">
         <f>COUNTIF($G:$G,"NO APLICA")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19">
         <f>COUNTIF($G:$G,"PENDIENTE")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="19">
         <f>SUM(D18:F21)</f>
         <v>9</v>
@@ -8959,12 +8966,6 @@
   </sheetData>
   <autoFilter ref="A25:H34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="13">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E3:G4"/>
@@ -8972,8 +8973,14 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B26" location="'01'!A1" display="CP01" xr:uid="{74AC7D28-E3A7-4D5B-8AA0-604A0511FEA9}"/>
     <hyperlink ref="B27:B34" location="'2.1'!A1" display="CP2.1" xr:uid="{19611196-C70F-4E85-8D0A-701A7464B943}"/>
@@ -9019,16 +9026,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="43"/>
+    <col min="1" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9039,7 +9046,7 @@
       <c r="B63" s="22"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9056,7 +9063,7 @@
       <c r="B76" s="22"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="42"/>
+      <c r="B77" s="34"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="22"/>
@@ -9065,17 +9072,17 @@
       <c r="B81" s="22"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="35" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9095,28 +9102,28 @@
       <c r="A98" s="22"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="43" t="s">
+      <c r="B117" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="43" t="s">
+      <c r="B148" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="42"/>
+      <c r="B155" s="34"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="43" t="s">
+      <c r="B177" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="42"/>
+      <c r="B194" s="34"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="42"/>
+      <c r="B217" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9138,16 +9145,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="43"/>
+    <col min="1" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9158,7 +9165,7 @@
       <c r="B63" s="22"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9175,7 +9182,7 @@
       <c r="B76" s="22"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="42"/>
+      <c r="B77" s="34"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="22"/>
@@ -9184,17 +9191,17 @@
       <c r="B81" s="22"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="35" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9214,28 +9221,28 @@
       <c r="A98" s="22"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="43" t="s">
+      <c r="B117" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="43" t="s">
+      <c r="B148" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="42"/>
+      <c r="B155" s="34"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="43" t="s">
+      <c r="B177" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="42"/>
+      <c r="B194" s="34"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="42"/>
+      <c r="B217" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9257,16 +9264,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="43"/>
+    <col min="1" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9277,7 +9284,7 @@
       <c r="B63" s="22"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9294,7 +9301,7 @@
       <c r="B76" s="22"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="42"/>
+      <c r="B77" s="34"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="22"/>
@@ -9303,17 +9310,17 @@
       <c r="B81" s="22"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="35" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9333,28 +9340,28 @@
       <c r="A98" s="22"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="43" t="s">
+      <c r="B117" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="43" t="s">
+      <c r="B148" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="42"/>
+      <c r="B155" s="34"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="43" t="s">
+      <c r="B177" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="42"/>
+      <c r="B194" s="34"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="42"/>
+      <c r="B217" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9376,16 +9383,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="43"/>
+    <col min="1" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9393,65 +9400,65 @@
       <c r="B4" s="22"/>
     </row>
     <row r="24" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X24" s="43" t="s">
+      <c r="X24" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X25" s="43" t="s">
+      <c r="X25" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Y25" s="43" t="s">
+      <c r="Y25" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X26" s="43" t="s">
+      <c r="X26" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" s="43" t="s">
+      <c r="Y26" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X27" s="43" t="s">
+      <c r="X27" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X28" s="43" t="s">
+      <c r="X28" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="Y28" s="43" t="s">
+      <c r="Y28" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X29" s="43" t="s">
+      <c r="X29" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="Y29" s="43" t="s">
+      <c r="Y29" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X30" s="43" t="s">
+      <c r="X30" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="Y30" s="43" t="s">
+      <c r="Y30" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X31" s="43" t="s">
+      <c r="X31" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="Y31" s="43" t="s">
+      <c r="Y31" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X33" s="43" t="s">
+      <c r="X33" s="35" t="s">
         <v>64</v>
       </c>
     </row>
@@ -9471,16 +9478,16 @@
       <c r="B76" s="22"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="42"/>
+      <c r="B77" s="34"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="22"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="42"/>
+      <c r="B95" s="34"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="42"/>
+      <c r="B118" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9502,18 +9509,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="43"/>
-    <col min="2" max="2" width="20.42578125" style="43" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="43"/>
+    <col min="1" max="1" width="11.42578125" style="35"/>
+    <col min="2" max="2" width="20.42578125" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="35" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9521,60 +9528,60 @@
       <c r="B4" s="22"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="37" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9594,7 +9601,7 @@
       <c r="B75" s="22"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="42"/>
+      <c r="B76" s="34"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="22"/>
@@ -9603,7 +9610,7 @@
       <c r="B80" s="22"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="44"/>
+      <c r="B82" s="36"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="22"/>
@@ -9621,13 +9628,13 @@
       <c r="A97" s="22"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="42"/>
+      <c r="B154" s="34"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="42"/>
+      <c r="B193" s="34"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="42"/>
+      <c r="B216" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9734,27 +9741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -10015,10 +10001,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9215699A-FD2A-4345-A19D-0C964345EF08}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9447B9D0-9C3F-44C9-8A4F-5DD3A47074A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10035,20 +10053,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9447B9D0-9C3F-44C9-8A4F-5DD3A47074A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9215699A-FD2A-4345-A19D-0C964345EF08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>